--- a/jobFair.xlsx
+++ b/jobFair.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19740" windowHeight="8070"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -59,23 +59,136 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,122 +202,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +225,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -237,169 +381,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,15 +410,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -433,6 +424,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,17 +454,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,6 +478,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -490,171 +510,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>

--- a/jobFair.xlsx
+++ b/jobFair.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860"/>
+    <workbookView windowWidth="20340" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>First Name</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Level of Studies</t>
   </si>
   <si>
+    <t>Thesis topic</t>
+  </si>
+  <si>
     <t>Languages</t>
   </si>
 </sst>
@@ -46,9 +49,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -75,60 +78,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,38 +91,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,8 +106,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,9 +182,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,97 +228,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,79 +378,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,16 +416,49 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -454,50 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,139 +516,139 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
@@ -654,7 +657,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,15 +1046,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H4"/>
+      <selection activeCell="A2" sqref="A2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="10.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="4" max="4" width="10.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="16.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="11.1111111111111" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1076,6 +1088,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jobFair.xlsx
+++ b/jobFair.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20340" windowHeight="7635"/>
+    <workbookView windowWidth="20340" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -48,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -62,6 +62,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -70,14 +78,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,31 +121,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,52 +160,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,7 +176,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,16 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,13 +222,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,169 +372,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,11 +425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,26 +472,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,157 +505,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I3"/>
+      <selection activeCell="A2" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
